--- a/src/test/resources/testNoId.xlsx
+++ b/src/test/resources/testNoId.xlsx
@@ -35,9 +35,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Localización</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -47,7 +44,10 @@
     <t>ana@example.com</t>
   </si>
   <si>
-    <t>41.5N35.99W</t>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
   </si>
 </sst>
 </file>
@@ -410,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,23 +429,29 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>12.36</v>
       </c>
       <c r="E2">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
